--- a/Packet/PacketData/Ping.xlsx
+++ b/Packet/PacketData/Ping.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">$BASE_CLASS_NAME$</t>
   </si>
   <si>
-    <t xml:space="preserve">PacketBase</t>
+    <t xml:space="preserve">Packet</t>
   </si>
   <si>
     <t xml:space="preserve">]</t>
@@ -135,32 +135,31 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="7:7"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="12.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Packet/PacketData/Ping.xlsx
+++ b/Packet/PacketData/Ping.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">$CLASS_NAME$</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">Packet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">]</t>
   </si>
 </sst>
 </file>
@@ -153,10 +150,10 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.78125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.27"/>
@@ -199,9 +196,7 @@
       <c r="B6" s="1"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
